--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4098750.017035248</v>
+        <v>-4099477.285629175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.142967359</v>
+        <v>1734214.14296736</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9059052411878</v>
+        <v>162.7914272715913</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48.05352955385981</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>54.61031803772089</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571328</v>
+        <v>78.04303565571344</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478421</v>
+        <v>184.9243220478423</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4130322951202</v>
+        <v>206.4130322951204</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561762</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>209.8908449105625</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757455</v>
+        <v>23.70524722757469</v>
       </c>
       <c r="C12" t="n">
-        <v>29.88056256602295</v>
+        <v>29.88056256602309</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142345959</v>
+        <v>4.617129142346101</v>
       </c>
       <c r="E12" t="n">
-        <v>14.81714403310815</v>
+        <v>14.81714403310829</v>
       </c>
       <c r="F12" t="n">
-        <v>2.241275971091085</v>
+        <v>2.241275971091227</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T12" t="n">
-        <v>56.24068595177389</v>
+        <v>56.24068595177403</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9234913358047</v>
+        <v>174.6365599679159</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>94.93185899074133</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>62.85475935501171</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.0040437596445</v>
+        <v>37.00404375964465</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633504</v>
+        <v>24.41888467633518</v>
       </c>
       <c r="D13" t="n">
-        <v>5.787536595919562</v>
+        <v>5.787536595919704</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276377</v>
+        <v>3.606026224276519</v>
       </c>
       <c r="F13" t="n">
-        <v>2.593111600638451</v>
+        <v>2.593111600638593</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93505813979068</v>
+        <v>24.93505813979082</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646466</v>
+        <v>17.3722439864648</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243143</v>
+        <v>5.766413901243281</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422049</v>
+        <v>24.21442947422063</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057555</v>
+        <v>77.21550839057569</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874882</v>
+        <v>84.14353614874896</v>
       </c>
       <c r="U13" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W13" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674436</v>
+        <v>82.8817189667445</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.756716929802</v>
+        <v>75.75671692980214</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411878</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.05352955385984</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>54.61031803772089</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571333</v>
+        <v>78.04303565571347</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478421</v>
+        <v>184.9243220478423</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951202</v>
+        <v>206.4130322951204</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561763</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.8908449105625</v>
+        <v>210.3015008906595</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757457</v>
+        <v>23.70524722757472</v>
       </c>
       <c r="C15" t="n">
-        <v>29.88056256602297</v>
+        <v>29.88056256602312</v>
       </c>
       <c r="D15" t="n">
-        <v>96.15813419674957</v>
+        <v>4.61712914234613</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81714403310818</v>
+        <v>14.81714403310832</v>
       </c>
       <c r="F15" t="n">
-        <v>2.241275971091113</v>
+        <v>2.241275971091255</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S15" t="n">
-        <v>166.6320173841457</v>
+        <v>115.3450860162566</v>
       </c>
       <c r="T15" t="n">
         <v>199.0686223740667</v>
@@ -1743,16 +1743,16 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V15" t="n">
-        <v>89.9726507271325</v>
+        <v>89.97265072713265</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118471</v>
+        <v>62.94504878118485</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501159</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964453</v>
+        <v>37.00404375964467</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633521</v>
       </c>
       <c r="D16" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919732</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276548</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638622</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979085</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646469</v>
+        <v>17.37224398646483</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243172</v>
+        <v>5.766413901243309</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422052</v>
+        <v>24.21442947422065</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057572</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874899</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3097069015352</v>
+        <v>109.3097069015354</v>
       </c>
       <c r="W16" t="n">
-        <v>143.6950619142982</v>
+        <v>143.6950619142984</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674439</v>
+        <v>82.88171896674453</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980202</v>
+        <v>75.75671692980217</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1844,13 @@
         <v>131.4288489952534</v>
       </c>
       <c r="C17" t="n">
-        <v>113.9678991027804</v>
+        <v>113.9678991027811</v>
       </c>
       <c r="D17" t="n">
         <v>103.3780489524558</v>
       </c>
       <c r="E17" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F17" t="n">
         <v>155.5710530734843</v>
@@ -1859,7 +1859,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129662</v>
+        <v>82.9646634612966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190775</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918588</v>
+        <v>97.93597604918585</v>
       </c>
       <c r="X17" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="18">
@@ -1923,19 +1923,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926924762</v>
+        <v>0.3899904926924478</v>
       </c>
       <c r="X18" t="n">
-        <v>139.1792337051685</v>
+        <v>74.31159042048604</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.607292937559254</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>220.0434448128684</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391601</v>
+        <v>35.00160115391598</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556008439</v>
       </c>
       <c r="W19" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836384</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>224.6507377504279</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F20" t="n">
         <v>155.5710530734843</v>
@@ -2096,7 +2096,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H20" t="n">
-        <v>82.96466346129662</v>
+        <v>82.9646634612966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190775</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918588</v>
+        <v>97.93597604918585</v>
       </c>
       <c r="X20" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>104.0191944858805</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>89.46115978031202</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>259.6523389043436</v>
+        <v>35.00160115391598</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556008439</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836387</v>
+        <v>259.8687434187917</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>110.309884766459</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>141.5144891044771</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.5793123115768</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>35.21800566836387</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>224.6507377504278</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811893</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.74513689198008</v>
+        <v>47.74513689198027</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U26" t="n">
-        <v>101.6118751001928</v>
+        <v>101.6118751001937</v>
       </c>
       <c r="V26" t="n">
         <v>178.0591409021014</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.951962887367443</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.50151787324769</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0686223740667</v>
+        <v>197.3246953412564</v>
       </c>
       <c r="U27" t="n">
         <v>225.9234913358047</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>102.0018655928861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2810,7 +2810,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I29" t="n">
-        <v>41.18834840811898</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>96.39940627943832</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S30" t="n">
         <v>166.6320173841457</v>
@@ -2925,7 +2925,7 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U30" t="n">
-        <v>76.23037376777121</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>56.07986763544397</v>
+        <v>56.58399260602842</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3047,7 +3047,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.188348408119</v>
+        <v>41.18834840811897</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198011</v>
+        <v>47.74513689198008</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997269</v>
+        <v>71.17785450997224</v>
       </c>
       <c r="U32" t="n">
-        <v>101.6118751001933</v>
+        <v>101.6118751001942</v>
       </c>
       <c r="V32" t="n">
         <v>178.0591409021014</v>
@@ -3092,7 +3092,7 @@
         <v>199.5478511493795</v>
       </c>
       <c r="X32" t="n">
-        <v>220.0379831104356</v>
+        <v>220.0379831104355</v>
       </c>
       <c r="Y32" t="n">
         <v>236.5448210880201</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.34419105241822</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>23.01538142028227</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.951962887367443</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.879978141839311</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6320173841457</v>
+        <v>16.93889981611217</v>
       </c>
       <c r="T33" t="n">
         <v>199.0686223740667</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.13886261390383</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059436</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699405</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H34" t="n">
-        <v>10.50706284072398</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.34924832847981</v>
+        <v>17.34924832847978</v>
       </c>
       <c r="S34" t="n">
-        <v>70.35032724483487</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300814</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U34" t="n">
         <v>136.6134762541097</v>
@@ -3250,10 +3250,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X34" t="n">
-        <v>76.01653782100368</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406132</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.9806268148778</v>
+        <v>145.9806268148779</v>
       </c>
       <c r="C35" t="n">
         <v>128.5196769224048</v>
@@ -3272,7 +3272,7 @@
         <v>117.9298267720802</v>
       </c>
       <c r="E35" t="n">
-        <v>145.177155223659</v>
+        <v>145.1771552236591</v>
       </c>
       <c r="F35" t="n">
         <v>170.1228308931087</v>
@@ -3281,7 +3281,7 @@
         <v>178.0412696714152</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092101</v>
+        <v>97.51644128092106</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>14.55177781962452</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153217</v>
+        <v>90.99904362153219</v>
       </c>
       <c r="W35" t="n">
         <v>112.4877538688103</v>
@@ -3332,7 +3332,7 @@
         <v>132.9778858298663</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.4847238074508</v>
+        <v>149.4847238074509</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>28.29074274062064</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0686223740667</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>39.96398805766877</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>230.5487832650948</v>
+        <v>49.55337897354043</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522526</v>
+        <v>15.38442847522529</v>
       </c>
       <c r="W37" t="n">
-        <v>49.76978348798826</v>
+        <v>49.76978348798829</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.9954042915544</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.9806268148778</v>
+        <v>145.9806268148779</v>
       </c>
       <c r="C38" t="n">
         <v>128.5196769224048</v>
@@ -3509,7 +3509,7 @@
         <v>117.9298267720802</v>
       </c>
       <c r="E38" t="n">
-        <v>145.177155223659</v>
+        <v>145.1771552236591</v>
       </c>
       <c r="F38" t="n">
         <v>170.1228308931087</v>
@@ -3518,7 +3518,7 @@
         <v>178.0412696714152</v>
       </c>
       <c r="H38" t="n">
-        <v>97.51644128092099</v>
+        <v>97.51644128092106</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.55177781962436</v>
+        <v>14.55177781962441</v>
       </c>
       <c r="V38" t="n">
-        <v>90.99904362153214</v>
+        <v>90.99904362153219</v>
       </c>
       <c r="W38" t="n">
-        <v>112.4877538688102</v>
+        <v>112.4877538688103</v>
       </c>
       <c r="X38" t="n">
         <v>132.9778858298663</v>
       </c>
       <c r="Y38" t="n">
-        <v>149.4847238074508</v>
+        <v>149.4847238074509</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744548</v>
+        <v>54.54154977944628</v>
       </c>
       <c r="S39" t="n">
         <v>166.6320173841457</v>
@@ -3639,7 +3639,7 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>70.50940849054679</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.95303839504119</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>167.0423658965133</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>49.55337897354038</v>
+        <v>49.55337897354043</v>
       </c>
       <c r="V40" t="n">
-        <v>15.38442847522523</v>
+        <v>196.3798327667798</v>
       </c>
       <c r="W40" t="n">
-        <v>49.76978348798824</v>
+        <v>49.76978348798829</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9234913358047</v>
+        <v>193.7170268354954</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>30.67158775953757</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.4094921756978</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.100500493035544</v>
+        <v>6.100500493035543</v>
       </c>
       <c r="U43" t="n">
         <v>65.43562174413707</v>
@@ -3961,7 +3961,7 @@
         <v>65.65202625858493</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031076</v>
+        <v>127.2481754867291</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4062,13 +4062,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.27374157744548</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>4.34304306965249</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V45" t="n">
-        <v>11.92961507141919</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>30.82401108291353</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>153.5186707483293</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.100500493035544</v>
+        <v>6.100500493035543</v>
       </c>
       <c r="U46" t="n">
         <v>65.43562174413707</v>
       </c>
       <c r="V46" t="n">
-        <v>153.6761634215197</v>
+        <v>31.26667124582193</v>
       </c>
       <c r="W46" t="n">
-        <v>65.65202625858493</v>
+        <v>188.0615184342829</v>
       </c>
       <c r="X46" t="n">
         <v>4.838683311031076</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.98758356401273</v>
+        <v>300.2183763948963</v>
       </c>
       <c r="C11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="D11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="E11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="F11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="G11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="H11" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528529</v>
       </c>
       <c r="I11" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J11" t="n">
-        <v>57.86375137082624</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K11" t="n">
-        <v>224.8839273401038</v>
+        <v>48.4987416476871</v>
       </c>
       <c r="L11" t="n">
-        <v>307.9786664140232</v>
+        <v>307.9786664140238</v>
       </c>
       <c r="M11" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185015</v>
       </c>
       <c r="N11" t="n">
-        <v>908.9431108514663</v>
+        <v>908.9431108514671</v>
       </c>
       <c r="O11" t="n">
-        <v>1142.916623706846</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P11" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q11" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R11" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S11" t="n">
-        <v>1294.217240788797</v>
+        <v>1294.217240788798</v>
       </c>
       <c r="T11" t="n">
-        <v>1215.385891641612</v>
+        <v>1215.385891641613</v>
       </c>
       <c r="U11" t="n">
         <v>1105.81310755481</v>
       </c>
       <c r="V11" t="n">
-        <v>919.0208630620398</v>
+        <v>919.0208630620402</v>
       </c>
       <c r="W11" t="n">
-        <v>710.5228506427264</v>
+        <v>710.5228506427268</v>
       </c>
       <c r="X11" t="n">
-        <v>481.3277352324474</v>
+        <v>710.5228506427268</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.3167807773337</v>
+        <v>464.6541615177157</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79.06446408175833</v>
+        <v>79.06446408175893</v>
       </c>
       <c r="C12" t="n">
-        <v>48.88207765143212</v>
+        <v>48.88207765143257</v>
       </c>
       <c r="D12" t="n">
-        <v>44.21831084098166</v>
+        <v>44.21831084098196</v>
       </c>
       <c r="E12" t="n">
-        <v>29.25149868632696</v>
+        <v>29.25149868632712</v>
       </c>
       <c r="F12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="G12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K12" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="L12" t="n">
-        <v>30.81587636399991</v>
+        <v>30.81587636400025</v>
       </c>
       <c r="M12" t="n">
-        <v>364.7872229686574</v>
+        <v>364.787222968658</v>
       </c>
       <c r="N12" t="n">
-        <v>698.758569573315</v>
+        <v>698.7585695733158</v>
       </c>
       <c r="O12" t="n">
-        <v>1011.566254371284</v>
+        <v>1011.566254371285</v>
       </c>
       <c r="P12" t="n">
-        <v>1245.618931356884</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q12" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R12" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S12" t="n">
-        <v>1181.064009125742</v>
+        <v>1096.949118643475</v>
       </c>
       <c r="T12" t="n">
-        <v>1124.255235437081</v>
+        <v>1040.140344954814</v>
       </c>
       <c r="U12" t="n">
-        <v>896.0496886332382</v>
+        <v>863.7397793306566</v>
       </c>
       <c r="V12" t="n">
-        <v>660.8975804014956</v>
+        <v>628.5876710989139</v>
       </c>
       <c r="W12" t="n">
-        <v>406.660223673294</v>
+        <v>374.3503143707123</v>
       </c>
       <c r="X12" t="n">
-        <v>310.7694570159795</v>
+        <v>166.4988141651795</v>
       </c>
       <c r="Y12" t="n">
-        <v>103.0091582510256</v>
+        <v>103.0091582510263</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000409</v>
+        <v>112.3201847000419</v>
       </c>
       <c r="C13" t="n">
-        <v>87.65464462293484</v>
+        <v>87.65464462293571</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806139992</v>
+        <v>81.80864806140065</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980762</v>
+        <v>78.1661973298082</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269807</v>
+        <v>75.54689268269851</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876809</v>
+        <v>50.35996526876839</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031894</v>
+        <v>32.8122440703191</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J13" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K13" t="n">
-        <v>31.16359793547451</v>
+        <v>31.16359793547454</v>
       </c>
       <c r="L13" t="n">
-        <v>233.4335502405507</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M13" t="n">
-        <v>308.001865027865</v>
+        <v>308.0018650278649</v>
       </c>
       <c r="N13" t="n">
-        <v>527.6313854378384</v>
+        <v>527.6313854378383</v>
       </c>
       <c r="O13" t="n">
-        <v>725.2726876571946</v>
+        <v>725.2726876571943</v>
       </c>
       <c r="P13" t="n">
-        <v>822.876168003625</v>
+        <v>822.8761680036273</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772326</v>
+        <v>897.8751138772348</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063028</v>
+        <v>873.4160942063048</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855194</v>
+        <v>795.4206311855213</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281973</v>
+        <v>710.4271603281991</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606716</v>
+        <v>565.4992235606733</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055855</v>
+        <v>455.0853782055871</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194257</v>
+        <v>309.9388510194271</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722091</v>
+        <v>226.2199429722104</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.6980066794798</v>
+        <v>149.698006679481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="C14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="D14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="E14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="F14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="G14" t="n">
-        <v>26.98758356401273</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H14" t="n">
-        <v>26.98758356401273</v>
+        <v>75.52650230528532</v>
       </c>
       <c r="I14" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J14" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K14" t="n">
-        <v>48.49874164768653</v>
+        <v>48.4987416476871</v>
       </c>
       <c r="L14" t="n">
-        <v>307.9786664140232</v>
+        <v>307.9786664140238</v>
       </c>
       <c r="M14" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185015</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9431108514663</v>
+        <v>908.9431108514671</v>
       </c>
       <c r="O14" t="n">
-        <v>1142.916623706846</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P14" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q14" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R14" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S14" t="n">
-        <v>1294.217240788797</v>
+        <v>1294.217240788798</v>
       </c>
       <c r="T14" t="n">
-        <v>1215.385891641612</v>
+        <v>1215.385891641613</v>
       </c>
       <c r="U14" t="n">
         <v>1105.81310755481</v>
       </c>
       <c r="V14" t="n">
-        <v>919.0208630620398</v>
+        <v>919.02086306204</v>
       </c>
       <c r="W14" t="n">
-        <v>710.5228506427264</v>
+        <v>710.5228506427266</v>
       </c>
       <c r="X14" t="n">
         <v>481.3277352324474</v>
       </c>
       <c r="Y14" t="n">
-        <v>269.3167807773337</v>
+        <v>268.9019767570337</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171.5301257528732</v>
+        <v>79.06446408175904</v>
       </c>
       <c r="C15" t="n">
-        <v>141.3477393225469</v>
+        <v>48.88207765143265</v>
       </c>
       <c r="D15" t="n">
-        <v>44.21831084098172</v>
+        <v>44.21831084098201</v>
       </c>
       <c r="E15" t="n">
-        <v>29.25149868632699</v>
+        <v>29.25149868632715</v>
       </c>
       <c r="F15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="G15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K15" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="L15" t="n">
-        <v>30.81587636399991</v>
+        <v>30.81587636400025</v>
       </c>
       <c r="M15" t="n">
-        <v>364.7872229686574</v>
+        <v>364.787222968658</v>
       </c>
       <c r="N15" t="n">
-        <v>698.758569573315</v>
+        <v>698.7585695733158</v>
       </c>
       <c r="O15" t="n">
-        <v>1011.566254371284</v>
+        <v>1011.566254371285</v>
       </c>
       <c r="P15" t="n">
-        <v>1245.618931356884</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q15" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R15" t="n">
-        <v>1265.264287718368</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S15" t="n">
-        <v>1096.949118643474</v>
+        <v>1148.754099823161</v>
       </c>
       <c r="T15" t="n">
-        <v>895.8697021040123</v>
+        <v>947.6746832836993</v>
       </c>
       <c r="U15" t="n">
-        <v>667.6641553001691</v>
+        <v>719.4691364798562</v>
       </c>
       <c r="V15" t="n">
-        <v>576.7826899192272</v>
+        <v>628.5876710989141</v>
       </c>
       <c r="W15" t="n">
-        <v>322.5453331910256</v>
+        <v>374.3503143707126</v>
       </c>
       <c r="X15" t="n">
-        <v>258.9644758362936</v>
+        <v>310.7694570159804</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.4748199221404</v>
+        <v>103.0091582510264</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000421</v>
       </c>
       <c r="C16" t="n">
-        <v>87.65464462293501</v>
+        <v>87.65464462293588</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140006</v>
+        <v>81.80864806140079</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980773</v>
+        <v>78.16619732980831</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269816</v>
+        <v>75.5468926826986</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876815</v>
+        <v>50.35996526876845</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031897</v>
+        <v>32.81224407031912</v>
       </c>
       <c r="I16" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J16" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K16" t="n">
-        <v>31.16359793547451</v>
+        <v>31.16359793547454</v>
       </c>
       <c r="L16" t="n">
-        <v>233.4335502405507</v>
+        <v>233.4335502405506</v>
       </c>
       <c r="M16" t="n">
-        <v>449.4015220859348</v>
+        <v>449.4015220859346</v>
       </c>
       <c r="N16" t="n">
-        <v>600.631104533233</v>
+        <v>534.2303933487731</v>
       </c>
       <c r="O16" t="n">
-        <v>656.8727496945194</v>
+        <v>731.8716955681291</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036254</v>
+        <v>897.8751138772351</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772351</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063052</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855216</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281994</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606736</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055858</v>
+        <v>455.0853782055874</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194259</v>
+        <v>309.9388510194274</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722107</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.69800667948</v>
+        <v>149.6980066794812</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739541</v>
+        <v>784.5598399739553</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711456</v>
+        <v>669.440749971146</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019982</v>
+        <v>565.0184783019987</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413572</v>
+        <v>433.0736526413576</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893528</v>
+        <v>275.9311747893532</v>
       </c>
       <c r="G17" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H17" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I17" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J17" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K17" t="n">
-        <v>48.49874164768653</v>
+        <v>48.4987416476871</v>
       </c>
       <c r="L17" t="n">
-        <v>307.9786664140232</v>
+        <v>307.9786664140238</v>
       </c>
       <c r="M17" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185015</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9431108514663</v>
+        <v>908.9431108514671</v>
       </c>
       <c r="O17" t="n">
-        <v>1142.916623706846</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P17" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q17" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R17" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S17" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T17" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U17" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="V17" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.234489462158</v>
+        <v>1173.234489462159</v>
       </c>
       <c r="X17" t="n">
-        <v>1053.612158138681</v>
+        <v>1053.612158138682</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004727</v>
+        <v>917.3162531004739</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>311.978280766042</v>
+        <v>350.375022506391</v>
       </c>
       <c r="C18" t="n">
-        <v>311.978280766042</v>
+        <v>175.921993225264</v>
       </c>
       <c r="D18" t="n">
-        <v>311.978280766042</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="E18" t="n">
-        <v>311.978280766042</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="F18" t="n">
-        <v>165.443722792927</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="G18" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H18" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I18" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J18" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K18" t="n">
-        <v>26.98758356401273</v>
+        <v>30.81587636400025</v>
       </c>
       <c r="L18" t="n">
-        <v>30.81587636399991</v>
+        <v>30.81587636400025</v>
       </c>
       <c r="M18" t="n">
-        <v>364.7872229686574</v>
+        <v>364.787222968658</v>
       </c>
       <c r="N18" t="n">
-        <v>698.758569573315</v>
+        <v>698.7585695733158</v>
       </c>
       <c r="O18" t="n">
-        <v>1011.566254371284</v>
+        <v>1011.566254371285</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356884</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q18" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R18" t="n">
-        <v>1265.264287718368</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S18" t="n">
-        <v>1096.949118643474</v>
+        <v>1096.949118643475</v>
       </c>
       <c r="T18" t="n">
-        <v>895.8697021040123</v>
+        <v>1096.949118643475</v>
       </c>
       <c r="U18" t="n">
-        <v>895.8697021040123</v>
+        <v>868.7435718396316</v>
       </c>
       <c r="V18" t="n">
-        <v>660.7175938722696</v>
+        <v>633.591463607889</v>
       </c>
       <c r="W18" t="n">
-        <v>660.3236640816712</v>
+        <v>633.1975338172905</v>
       </c>
       <c r="X18" t="n">
-        <v>519.7385795309959</v>
+        <v>558.135321271345</v>
       </c>
       <c r="Y18" t="n">
-        <v>311.978280766042</v>
+        <v>350.375022506391</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="C19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="D19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="E19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="F19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="G19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K19" t="n">
-        <v>31.16359793547451</v>
+        <v>31.16359793547454</v>
       </c>
       <c r="L19" t="n">
-        <v>92.03389318248087</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M19" t="n">
-        <v>166.6022079697951</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N19" t="n">
-        <v>244.8320713216987</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O19" t="n">
-        <v>301.073716482985</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P19" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R19" t="n">
-        <v>321.0236464839613</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S19" t="n">
-        <v>98.75754061237714</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T19" t="n">
-        <v>98.75754061237714</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U19" t="n">
-        <v>63.40238793165389</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V19" t="n">
-        <v>62.56132666337018</v>
+        <v>289.4812637850144</v>
       </c>
       <c r="W19" t="n">
-        <v>26.98758356401273</v>
+        <v>253.907520685657</v>
       </c>
       <c r="X19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739544</v>
+        <v>784.5598399739551</v>
       </c>
       <c r="C20" t="n">
-        <v>669.4407499711457</v>
+        <v>669.4407499711465</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019984</v>
+        <v>565.0184783019993</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413573</v>
+        <v>433.0736526413582</v>
       </c>
       <c r="F20" t="n">
-        <v>275.931174789353</v>
+        <v>275.9311747893539</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H20" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I20" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J20" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K20" t="n">
-        <v>48.49874164768653</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L20" t="n">
-        <v>307.9786664140232</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M20" t="n">
-        <v>613.3066246185008</v>
+        <v>657.7525819662933</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9431108514663</v>
+        <v>953.3890681992589</v>
       </c>
       <c r="O20" t="n">
-        <v>1142.916623706846</v>
+        <v>1187.362581054639</v>
       </c>
       <c r="P20" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="Q20" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R20" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S20" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T20" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U20" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="V20" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.234489462158</v>
+        <v>1173.234489462159</v>
       </c>
       <c r="X20" t="n">
-        <v>1053.612158138681</v>
+        <v>1053.612158138682</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.316253100473</v>
+        <v>917.3162531004738</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>132.0574769840941</v>
+        <v>165.443722792927</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0574769840941</v>
+        <v>165.443722792927</v>
       </c>
       <c r="D21" t="n">
-        <v>132.0574769840941</v>
+        <v>165.443722792927</v>
       </c>
       <c r="E21" t="n">
-        <v>132.0574769840941</v>
+        <v>165.443722792927</v>
       </c>
       <c r="F21" t="n">
-        <v>132.0574769840941</v>
+        <v>165.443722792927</v>
       </c>
       <c r="G21" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H21" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I21" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J21" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K21" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="L21" t="n">
-        <v>315.4056578489914</v>
+        <v>30.81587636400025</v>
       </c>
       <c r="M21" t="n">
-        <v>364.7872229686574</v>
+        <v>364.787222968658</v>
       </c>
       <c r="N21" t="n">
-        <v>698.758569573315</v>
+        <v>698.7585695733158</v>
       </c>
       <c r="O21" t="n">
-        <v>1011.566254371284</v>
+        <v>1011.566254371285</v>
       </c>
       <c r="P21" t="n">
-        <v>1245.618931356884</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q21" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R21" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S21" t="n">
-        <v>1265.264287718368</v>
+        <v>1259.014370341736</v>
       </c>
       <c r="T21" t="n">
-        <v>1265.264287718368</v>
+        <v>1259.014370341736</v>
       </c>
       <c r="U21" t="n">
-        <v>1037.058740914525</v>
+        <v>1030.808823537893</v>
       </c>
       <c r="V21" t="n">
-        <v>801.9066326827824</v>
+        <v>795.6567153061505</v>
       </c>
       <c r="W21" t="n">
-        <v>547.6692759545808</v>
+        <v>541.419358577949</v>
       </c>
       <c r="X21" t="n">
-        <v>339.817775749048</v>
+        <v>541.419358577949</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.0574769840941</v>
+        <v>333.659059812995</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="C22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="D22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="E22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="F22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="G22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="H22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K22" t="n">
-        <v>31.16359793547451</v>
+        <v>31.16359793547454</v>
       </c>
       <c r="L22" t="n">
-        <v>92.03389318248087</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M22" t="n">
-        <v>166.6022079697951</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N22" t="n">
-        <v>244.8320713216987</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O22" t="n">
-        <v>301.073716482985</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P22" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q22" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R22" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S22" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T22" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U22" t="n">
-        <v>63.40238793165389</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V22" t="n">
-        <v>62.56132666337018</v>
+        <v>289.4812637850144</v>
       </c>
       <c r="W22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="X22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739549</v>
+        <v>784.559839973954</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711464</v>
+        <v>669.4407499711455</v>
       </c>
       <c r="D23" t="n">
-        <v>565.018478301999</v>
+        <v>565.0184783019981</v>
       </c>
       <c r="E23" t="n">
-        <v>433.073652641358</v>
+        <v>433.0736526413571</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893537</v>
+        <v>275.9311747893528</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J23" t="n">
-        <v>26.98758356401275</v>
+        <v>57.86375137082626</v>
       </c>
       <c r="K23" t="n">
-        <v>48.49874164768744</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L23" t="n">
-        <v>307.9786664140241</v>
+        <v>484.3638521064406</v>
       </c>
       <c r="M23" t="n">
-        <v>613.3066246185017</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514672</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706847</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852846</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.15971779467</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004734</v>
+        <v>917.3162531004725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>433.8806772251053</v>
+        <v>256.7642250896361</v>
       </c>
       <c r="C24" t="n">
-        <v>433.8806772251053</v>
+        <v>256.7642250896361</v>
       </c>
       <c r="D24" t="n">
-        <v>284.9462675638541</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="E24" t="n">
-        <v>173.5221415371278</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="F24" t="n">
-        <v>26.98758356401275</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="G24" t="n">
-        <v>26.98758356401275</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="H24" t="n">
-        <v>26.98758356401275</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="L24" t="n">
-        <v>30.81587636400036</v>
+        <v>315.4056578489914</v>
       </c>
       <c r="M24" t="n">
-        <v>364.7872229686581</v>
+        <v>364.7872229686573</v>
       </c>
       <c r="N24" t="n">
-        <v>698.7585695733159</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O24" t="n">
-        <v>1011.566254371285</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.618931356885</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R24" t="n">
-        <v>1265.264287718369</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S24" t="n">
-        <v>1265.264287718369</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T24" t="n">
-        <v>1064.184871178908</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="U24" t="n">
-        <v>1064.184871178908</v>
+        <v>954.0051902551131</v>
       </c>
       <c r="V24" t="n">
-        <v>1064.184871178908</v>
+        <v>718.8530820233705</v>
       </c>
       <c r="W24" t="n">
-        <v>809.9475144507062</v>
+        <v>464.6157252951689</v>
       </c>
       <c r="X24" t="n">
-        <v>602.0960142451734</v>
+        <v>256.7642250896361</v>
       </c>
       <c r="Y24" t="n">
-        <v>602.0960142451734</v>
+        <v>256.7642250896361</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547453</v>
+        <v>31.16359793547452</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248088</v>
+        <v>92.0338931824809</v>
       </c>
       <c r="M25" t="n">
-        <v>166.6022079697951</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N25" t="n">
         <v>244.8320713216987</v>
       </c>
       <c r="O25" t="n">
-        <v>301.073716482985</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P25" t="n">
-        <v>325.6774777340212</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q25" t="n">
-        <v>257.9285631493234</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R25" t="n">
-        <v>257.9285631493234</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S25" t="n">
-        <v>257.9285631493234</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T25" t="n">
-        <v>257.9285631493234</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U25" t="n">
-        <v>222.5734104686001</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V25" t="n">
-        <v>221.7323492003164</v>
+        <v>289.4812637850144</v>
       </c>
       <c r="W25" t="n">
-        <v>186.158606100959</v>
+        <v>253.9075206856569</v>
       </c>
       <c r="X25" t="n">
-        <v>186.158606100959</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.158606100959</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1470.43026241195</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732178</v>
+        <v>1252.672914732179</v>
       </c>
       <c r="D26" t="n">
         <v>1045.612385386068</v>
@@ -6218,28 +6218,28 @@
         <v>283.4694079821378</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022843</v>
+        <v>97.02845994022847</v>
       </c>
       <c r="I26" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J26" t="n">
-        <v>234.4964218079618</v>
+        <v>234.496421807962</v>
       </c>
       <c r="K26" t="n">
-        <v>549.7127841695926</v>
+        <v>549.7127841695929</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282826</v>
+        <v>957.3888953282831</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N26" t="n">
         <v>1854.745712550432</v>
       </c>
       <c r="O26" t="n">
-        <v>2236.915411798165</v>
+        <v>2236.915411798166</v>
       </c>
       <c r="P26" t="n">
         <v>2547.128195336517</v>
@@ -6248,10 +6248,10 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R26" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S26" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T26" t="n">
         <v>2651.079146700412</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>387.3530094379935</v>
+        <v>237.9093826347378</v>
       </c>
       <c r="C27" t="n">
-        <v>364.1051494175064</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="D27" t="n">
-        <v>364.1051494175064</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="E27" t="n">
-        <v>356.0728636726908</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="F27" t="n">
-        <v>209.5383056995758</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G27" t="n">
-        <v>71.08216647066152</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H27" t="n">
-        <v>71.08216647066152</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I27" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J27" t="n">
-        <v>80.12032194860501</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K27" t="n">
-        <v>248.9509972916671</v>
+        <v>248.9509972916672</v>
       </c>
       <c r="L27" t="n">
         <v>537.3690715766459</v>
@@ -6333,22 +6333,22 @@
         <v>1738.649404471157</v>
       </c>
       <c r="T27" t="n">
-        <v>1537.569987931696</v>
+        <v>1539.33153038908</v>
       </c>
       <c r="U27" t="n">
-        <v>1309.364441127853</v>
+        <v>1311.125983585237</v>
       </c>
       <c r="V27" t="n">
-        <v>1074.21233289611</v>
+        <v>1075.973875353494</v>
       </c>
       <c r="W27" t="n">
-        <v>971.1801454285483</v>
+        <v>821.7365186252925</v>
       </c>
       <c r="X27" t="n">
-        <v>763.3286452230154</v>
+        <v>613.8850184197597</v>
       </c>
       <c r="Y27" t="n">
-        <v>555.5683464580616</v>
+        <v>406.1247196548059</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.49789674253927</v>
+        <v>96.72446011478895</v>
       </c>
       <c r="C28" t="n">
-        <v>75.76688307527226</v>
+        <v>78.99344644752195</v>
       </c>
       <c r="D28" t="n">
-        <v>76.8337511795952</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="E28" t="n">
         <v>80.06031455184488</v>
@@ -6376,58 +6376,58 @@
         <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I28" t="n">
-        <v>56.51184718084776</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2397851103905</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="K28" t="n">
-        <v>132.4157994818523</v>
+        <v>80.76621262782231</v>
       </c>
       <c r="L28" t="n">
-        <v>193.2860947288587</v>
+        <v>141.6365078748287</v>
       </c>
       <c r="M28" t="n">
-        <v>416.0505959085261</v>
+        <v>364.4010090544961</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2804592604297</v>
+        <v>442.6308724063997</v>
       </c>
       <c r="O28" t="n">
-        <v>562.0466653798987</v>
+        <v>647.0687039600392</v>
       </c>
       <c r="P28" t="n">
-        <v>734.8466130232881</v>
+        <v>819.8686516034286</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.6420882311789</v>
+        <v>819.8686516034286</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1175949700882</v>
+        <v>802.3441583423379</v>
       </c>
       <c r="S28" t="n">
-        <v>728.056658359144</v>
+        <v>731.2832217313936</v>
       </c>
       <c r="T28" t="n">
-        <v>649.997713911661</v>
+        <v>653.2242772839106</v>
       </c>
       <c r="U28" t="n">
-        <v>512.0043035539744</v>
+        <v>515.2308669262241</v>
       </c>
       <c r="V28" t="n">
-        <v>408.5249846087274</v>
+        <v>411.7515479809771</v>
       </c>
       <c r="W28" t="n">
-        <v>270.3129838324067</v>
+        <v>273.5395472046564</v>
       </c>
       <c r="X28" t="n">
-        <v>193.5286021950293</v>
+        <v>196.7551655672789</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9411923121391</v>
+        <v>127.1677556843888</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1470.43026241195</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D29" t="n">
         <v>1045.612385386068</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484637</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F29" t="n">
-        <v>551.248566519496</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G29" t="n">
         <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022849</v>
+        <v>97.02845994022847</v>
       </c>
       <c r="I29" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J29" t="n">
-        <v>234.4964218079618</v>
+        <v>234.496421807962</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695926</v>
+        <v>549.7127841695927</v>
       </c>
       <c r="L29" t="n">
         <v>957.3888953282827</v>
@@ -6479,13 +6479,13 @@
         <v>2236.915411798165</v>
       </c>
       <c r="P29" t="n">
-        <v>2547.128195336516</v>
+        <v>2547.128195336517</v>
       </c>
       <c r="Q29" t="n">
-        <v>2739.770339076661</v>
+        <v>2739.770339076662</v>
       </c>
       <c r="R29" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S29" t="n">
         <v>2722.975969437759</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.6730691809016</v>
+        <v>386.843792295989</v>
       </c>
       <c r="C30" t="n">
-        <v>448.2200398997746</v>
+        <v>212.390763014862</v>
       </c>
       <c r="D30" t="n">
-        <v>299.2856302385234</v>
+        <v>63.45635335361078</v>
       </c>
       <c r="E30" t="n">
-        <v>291.2533444937077</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="F30" t="n">
-        <v>291.2533444937077</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G30" t="n">
-        <v>152.7972052647935</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J30" t="n">
-        <v>80.12032194860501</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K30" t="n">
-        <v>248.9509972916671</v>
+        <v>248.9509972916672</v>
       </c>
       <c r="L30" t="n">
         <v>537.3690715766459</v>
@@ -6564,28 +6564,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R30" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S30" t="n">
-        <v>1822.764294953425</v>
+        <v>1738.649404471157</v>
       </c>
       <c r="T30" t="n">
-        <v>1621.684878413964</v>
+        <v>1537.569987931696</v>
       </c>
       <c r="U30" t="n">
-        <v>1544.684500870761</v>
+        <v>1309.364441127853</v>
       </c>
       <c r="V30" t="n">
-        <v>1309.532392639018</v>
+        <v>1074.21233289611</v>
       </c>
       <c r="W30" t="n">
-        <v>1055.295035910817</v>
+        <v>819.9749761679084</v>
       </c>
       <c r="X30" t="n">
-        <v>998.6487049659236</v>
+        <v>762.819428081011</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.8884062009697</v>
+        <v>555.0591293160571</v>
       </c>
     </row>
     <row r="31">
@@ -6613,28 +6613,28 @@
         <v>66.03726239740523</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I31" t="n">
-        <v>55.42406760879517</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="J31" t="n">
-        <v>55.42406760879517</v>
+        <v>128.2397851103905</v>
       </c>
       <c r="K31" t="n">
-        <v>59.60008198025695</v>
+        <v>143.9403604400351</v>
       </c>
       <c r="L31" t="n">
-        <v>120.4703772272633</v>
+        <v>353.0068420793946</v>
       </c>
       <c r="M31" t="n">
-        <v>343.2348784069307</v>
+        <v>427.5751568667088</v>
       </c>
       <c r="N31" t="n">
-        <v>421.4647417588343</v>
+        <v>654.0012066109656</v>
       </c>
       <c r="O31" t="n">
-        <v>562.0466653798987</v>
+        <v>710.2428517722519</v>
       </c>
       <c r="P31" t="n">
         <v>734.8466130232881</v>
@@ -6683,31 +6683,31 @@
         <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484637</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F32" t="n">
-        <v>551.248566519496</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G32" t="n">
         <v>283.4694079821379</v>
       </c>
       <c r="H32" t="n">
-        <v>97.0284599402285</v>
+        <v>97.02845994022849</v>
       </c>
       <c r="I32" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079618</v>
+        <v>234.4964218079619</v>
       </c>
       <c r="K32" t="n">
         <v>549.7127841695926</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282824</v>
+        <v>957.3888953282825</v>
       </c>
       <c r="M32" t="n">
-        <v>1410.913039925114</v>
+        <v>1410.913039925113</v>
       </c>
       <c r="N32" t="n">
         <v>1854.745712550432</v>
@@ -6722,13 +6722,13 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R32" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S32" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T32" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U32" t="n">
         <v>2548.440889023449</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>386.8437922959891</v>
+        <v>387.3530094379935</v>
       </c>
       <c r="C33" t="n">
-        <v>363.5959322755019</v>
+        <v>212.8999801568665</v>
       </c>
       <c r="D33" t="n">
-        <v>214.6615226142507</v>
+        <v>212.8999801568665</v>
       </c>
       <c r="E33" t="n">
-        <v>55.42406760879517</v>
+        <v>204.8676944120509</v>
       </c>
       <c r="F33" t="n">
-        <v>55.42406760879517</v>
+        <v>58.3331364389359</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42406760879517</v>
+        <v>58.3331364389359</v>
       </c>
       <c r="H33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J33" t="n">
-        <v>80.12032194860501</v>
+        <v>80.12032194860504</v>
       </c>
       <c r="K33" t="n">
-        <v>248.9509972916671</v>
+        <v>248.9509972916672</v>
       </c>
       <c r="L33" t="n">
         <v>537.3690715766459</v>
@@ -6804,25 +6804,25 @@
         <v>1906.964573546052</v>
       </c>
       <c r="S33" t="n">
-        <v>1738.649404471157</v>
+        <v>1889.854573731797</v>
       </c>
       <c r="T33" t="n">
-        <v>1537.569987931696</v>
+        <v>1688.775157192336</v>
       </c>
       <c r="U33" t="n">
-        <v>1309.364441127853</v>
+        <v>1460.569610388492</v>
       </c>
       <c r="V33" t="n">
-        <v>1074.21233289611</v>
+        <v>1225.41750215675</v>
       </c>
       <c r="W33" t="n">
-        <v>819.9749761679084</v>
+        <v>971.1801454285483</v>
       </c>
       <c r="X33" t="n">
-        <v>612.1234759623756</v>
+        <v>763.3286452230154</v>
       </c>
       <c r="Y33" t="n">
-        <v>404.3631771974216</v>
+        <v>555.5683464580616</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.49789674253944</v>
+        <v>97.79132821911189</v>
       </c>
       <c r="C34" t="n">
-        <v>75.7668830752724</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="D34" t="n">
-        <v>76.83375117959531</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="E34" t="n">
-        <v>80.06031455184497</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F34" t="n">
-        <v>84.28966340149617</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740526</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H34" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I34" t="n">
-        <v>56.51184718084773</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="J34" t="n">
-        <v>56.51184718084773</v>
+        <v>56.51184718084777</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9403604400355</v>
+        <v>60.68786155230956</v>
       </c>
       <c r="L34" t="n">
-        <v>353.006842079395</v>
+        <v>269.7543431916691</v>
       </c>
       <c r="M34" t="n">
-        <v>427.5751568667092</v>
+        <v>431.8685883432814</v>
       </c>
       <c r="N34" t="n">
-        <v>505.8050202186128</v>
+        <v>510.098451695185</v>
       </c>
       <c r="O34" t="n">
-        <v>710.2428517722523</v>
+        <v>714.5362832488245</v>
       </c>
       <c r="P34" t="n">
-        <v>734.8466130232885</v>
+        <v>739.1400444998607</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.6420882311793</v>
+        <v>820.9355197077515</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1175949700886</v>
+        <v>803.4110264466608</v>
       </c>
       <c r="S34" t="n">
-        <v>728.0566583591443</v>
+        <v>732.3500898357165</v>
       </c>
       <c r="T34" t="n">
-        <v>649.9977139116613</v>
+        <v>654.2911453882335</v>
       </c>
       <c r="U34" t="n">
-        <v>512.0043035539748</v>
+        <v>516.297735030547</v>
       </c>
       <c r="V34" t="n">
-        <v>408.5249846087277</v>
+        <v>412.8184160853</v>
       </c>
       <c r="W34" t="n">
-        <v>270.312983832407</v>
+        <v>274.6064153089793</v>
       </c>
       <c r="X34" t="n">
-        <v>193.5286021950295</v>
+        <v>197.8220336716019</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.9411923121393</v>
+        <v>128.2346237887117</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.3521304873552</v>
+        <v>876.3521304873555</v>
       </c>
       <c r="C35" t="n">
         <v>746.5342750101788</v>
@@ -6935,16 +6935,16 @@
         <v>30.58728123120493</v>
       </c>
       <c r="J35" t="n">
-        <v>61.46344903801844</v>
+        <v>61.46344903801846</v>
       </c>
       <c r="K35" t="n">
-        <v>228.483625007296</v>
+        <v>228.4836250072961</v>
       </c>
       <c r="L35" t="n">
-        <v>487.9635497736326</v>
+        <v>487.9635497736328</v>
       </c>
       <c r="M35" t="n">
-        <v>793.2915079781102</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N35" t="n">
         <v>1088.927994211076</v>
@@ -6953,7 +6953,7 @@
         <v>1322.901507066456</v>
       </c>
       <c r="P35" t="n">
-        <v>1484.918104212454</v>
+        <v>1484.918104212455</v>
       </c>
       <c r="Q35" t="n">
         <v>1529.364061560246</v>
@@ -6974,7 +6974,7 @@
         <v>1422.747070205543</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.123076398663</v>
+        <v>1309.123076398664</v>
       </c>
       <c r="X35" t="n">
         <v>1174.801979600819</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>364.2777655177874</v>
+        <v>318.8144440097755</v>
       </c>
       <c r="C36" t="n">
-        <v>189.8247362366604</v>
+        <v>318.8144440097755</v>
       </c>
       <c r="D36" t="n">
-        <v>189.8247362366604</v>
+        <v>169.8800343485242</v>
       </c>
       <c r="E36" t="n">
-        <v>30.58728123120493</v>
+        <v>169.8800343485242</v>
       </c>
       <c r="F36" t="n">
-        <v>30.58728123120493</v>
+        <v>169.8800343485242</v>
       </c>
       <c r="G36" t="n">
-        <v>30.58728123120493</v>
+        <v>169.8800343485242</v>
       </c>
       <c r="H36" t="n">
-        <v>30.58728123120493</v>
+        <v>59.16378905001366</v>
       </c>
       <c r="I36" t="n">
         <v>30.58728123120493</v>
@@ -7017,16 +7017,16 @@
         <v>30.58728123120493</v>
       </c>
       <c r="K36" t="n">
-        <v>30.58728123120493</v>
+        <v>121.7082424606028</v>
       </c>
       <c r="L36" t="n">
-        <v>121.7082424606027</v>
+        <v>121.7082424606028</v>
       </c>
       <c r="M36" t="n">
-        <v>500.2258476967637</v>
+        <v>500.2258476967638</v>
       </c>
       <c r="N36" t="n">
-        <v>878.7434529329246</v>
+        <v>878.7434529329248</v>
       </c>
       <c r="O36" t="n">
         <v>1191.551137730894</v>
@@ -7041,25 +7041,25 @@
         <v>1445.249171077978</v>
       </c>
       <c r="S36" t="n">
-        <v>1276.934002003083</v>
+        <v>1445.249171077978</v>
       </c>
       <c r="T36" t="n">
-        <v>1075.854585463622</v>
+        <v>1244.169754538517</v>
       </c>
       <c r="U36" t="n">
-        <v>847.6490386597789</v>
+        <v>1015.964207734674</v>
       </c>
       <c r="V36" t="n">
-        <v>612.4969304280362</v>
+        <v>780.812099502931</v>
       </c>
       <c r="W36" t="n">
-        <v>572.1292657233203</v>
+        <v>526.5747427747294</v>
       </c>
       <c r="X36" t="n">
-        <v>364.2777655177874</v>
+        <v>526.5747427747294</v>
       </c>
       <c r="Y36" t="n">
-        <v>364.2777655177874</v>
+        <v>318.8144440097755</v>
       </c>
     </row>
     <row r="37">
@@ -7096,43 +7096,43 @@
         <v>30.58728123120493</v>
       </c>
       <c r="K37" t="n">
-        <v>34.76329560266671</v>
+        <v>34.76329560266672</v>
       </c>
       <c r="L37" t="n">
-        <v>95.63359084967307</v>
+        <v>95.6335908496731</v>
       </c>
       <c r="M37" t="n">
-        <v>170.2019056369873</v>
+        <v>170.2019056369874</v>
       </c>
       <c r="N37" t="n">
-        <v>248.4317689888909</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O37" t="n">
-        <v>304.6734141501772</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P37" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="Q37" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="R37" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="S37" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="T37" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="U37" t="n">
-        <v>96.39961654758223</v>
+        <v>279.2232572461222</v>
       </c>
       <c r="V37" t="n">
-        <v>80.85978980493044</v>
+        <v>263.6834305034703</v>
       </c>
       <c r="W37" t="n">
-        <v>30.58728123120493</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="X37" t="n">
         <v>30.58728123120493</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873557</v>
+        <v>876.3521304873556</v>
       </c>
       <c r="C38" t="n">
         <v>746.5342750101789</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666636</v>
+        <v>627.4132378666635</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316545</v>
+        <v>480.7696467316543</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052821</v>
+        <v>308.9284034052819</v>
       </c>
       <c r="G38" t="n">
         <v>129.0887370705191</v>
@@ -7172,16 +7172,16 @@
         <v>30.58728123120493</v>
       </c>
       <c r="J38" t="n">
-        <v>61.46344903801833</v>
+        <v>61.46344903801855</v>
       </c>
       <c r="K38" t="n">
-        <v>228.483625007296</v>
+        <v>228.4836250072963</v>
       </c>
       <c r="L38" t="n">
-        <v>487.9635497736327</v>
+        <v>487.9635497736331</v>
       </c>
       <c r="M38" t="n">
-        <v>793.2915079781102</v>
+        <v>793.2915079781108</v>
       </c>
       <c r="N38" t="n">
         <v>1088.927994211076</v>
@@ -7190,19 +7190,19 @@
         <v>1322.901507066456</v>
       </c>
       <c r="P38" t="n">
-        <v>1484.918104212454</v>
+        <v>1484.918104212455</v>
       </c>
       <c r="Q38" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="R38" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="S38" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="T38" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="U38" t="n">
         <v>1514.665296085878</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.9747201735833</v>
+        <v>179.5216908924562</v>
       </c>
       <c r="C39" t="n">
         <v>179.5216908924562</v>
@@ -7257,46 +7257,46 @@
         <v>30.58728123120493</v>
       </c>
       <c r="L39" t="n">
-        <v>121.7082424606027</v>
+        <v>319.0053555161837</v>
       </c>
       <c r="M39" t="n">
-        <v>500.2258476967637</v>
+        <v>500.225847696764</v>
       </c>
       <c r="N39" t="n">
-        <v>878.7434529329246</v>
+        <v>878.743452932925</v>
       </c>
       <c r="O39" t="n">
         <v>1191.551137730894</v>
       </c>
       <c r="P39" t="n">
-        <v>1425.603814716494</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q39" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="R39" t="n">
-        <v>1445.249171077978</v>
+        <v>1474.271587035553</v>
       </c>
       <c r="S39" t="n">
-        <v>1276.934002003083</v>
+        <v>1305.956417960659</v>
       </c>
       <c r="T39" t="n">
-        <v>1075.854585463622</v>
+        <v>1104.877001421198</v>
       </c>
       <c r="U39" t="n">
-        <v>847.6490386597789</v>
+        <v>876.6714546173544</v>
       </c>
       <c r="V39" t="n">
-        <v>847.6490386597789</v>
+        <v>641.5193463856117</v>
       </c>
       <c r="W39" t="n">
-        <v>593.4116819315773</v>
+        <v>387.2819896574101</v>
       </c>
       <c r="X39" t="n">
-        <v>593.4116819315773</v>
+        <v>387.2819896574101</v>
       </c>
       <c r="Y39" t="n">
-        <v>522.1900571936512</v>
+        <v>179.5216908924562</v>
       </c>
     </row>
     <row r="40">
@@ -7333,40 +7333,40 @@
         <v>30.58728123120493</v>
       </c>
       <c r="K40" t="n">
-        <v>34.76329560266671</v>
+        <v>34.76329560266673</v>
       </c>
       <c r="L40" t="n">
-        <v>95.63359084967307</v>
+        <v>95.63359084967311</v>
       </c>
       <c r="M40" t="n">
-        <v>170.2019056369873</v>
+        <v>170.2019056369874</v>
       </c>
       <c r="N40" t="n">
-        <v>248.4317689888909</v>
+        <v>248.431768988891</v>
       </c>
       <c r="O40" t="n">
-        <v>304.6734141501772</v>
+        <v>304.6734141501773</v>
       </c>
       <c r="P40" t="n">
-        <v>329.2771754012134</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="Q40" t="n">
-        <v>315.1831972244041</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="R40" t="n">
-        <v>146.4535347026735</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="S40" t="n">
-        <v>146.4535347026735</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="T40" t="n">
-        <v>146.4535347026735</v>
+        <v>329.2771754012135</v>
       </c>
       <c r="U40" t="n">
-        <v>96.39961654758217</v>
+        <v>279.2232572461222</v>
       </c>
       <c r="V40" t="n">
-        <v>80.85978980493041</v>
+        <v>80.85978980493049</v>
       </c>
       <c r="W40" t="n">
         <v>30.58728123120493</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907492</v>
+        <v>976.5369642907474</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483235</v>
+        <v>830.6764393483217</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395589</v>
+        <v>695.5127327395571</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721393007</v>
+        <v>532.8264721392989</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476792</v>
+        <v>344.9425593476774</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
       </c>
       <c r="H41" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J41" t="n">
-        <v>65.39226604991622</v>
+        <v>65.3922660499162</v>
       </c>
       <c r="K41" t="n">
         <v>232.4124420191938</v>
       </c>
       <c r="L41" t="n">
-        <v>491.8923667855305</v>
+        <v>491.8923667855306</v>
       </c>
       <c r="M41" t="n">
-        <v>797.2203249900081</v>
+        <v>797.2203249900083</v>
       </c>
       <c r="N41" t="n">
-        <v>1092.856811222974</v>
+        <v>1224.357040748404</v>
       </c>
       <c r="O41" t="n">
-        <v>1326.830324078354</v>
+        <v>1458.330553603784</v>
       </c>
       <c r="P41" t="n">
-        <v>1488.846921224352</v>
+        <v>1681.358954807341</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.804912155135</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.804912155135</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.804912155135</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.804912155135</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.063477215518</v>
+        <v>1695.063477215516</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869933</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.435918597805</v>
+        <v>1457.435918597803</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.072152334711</v>
+        <v>1307.072152334709</v>
       </c>
       <c r="Y41" t="n">
-        <v>1140.034812356885</v>
+        <v>1140.034812356883</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>355.5036854973447</v>
+        <v>496.3596764143952</v>
       </c>
       <c r="C42" t="n">
-        <v>181.0506562162177</v>
+        <v>321.9066471332682</v>
       </c>
       <c r="D42" t="n">
-        <v>181.0506562162177</v>
+        <v>172.9722374720169</v>
       </c>
       <c r="E42" t="n">
-        <v>181.0506562162177</v>
+        <v>172.9722374720169</v>
       </c>
       <c r="F42" t="n">
-        <v>34.5160982431027</v>
+        <v>172.9722374720169</v>
       </c>
       <c r="G42" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H42" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J42" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K42" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="L42" t="n">
-        <v>272.0945197034609</v>
+        <v>272.0945197034591</v>
       </c>
       <c r="M42" t="n">
-        <v>660.6440302326312</v>
+        <v>660.6440302326293</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.184303527813</v>
+        <v>1075.184303527812</v>
       </c>
       <c r="O42" t="n">
-        <v>1387.991988325782</v>
+        <v>1387.991988325781</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.044665311383</v>
+        <v>1622.044665311381</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.804912155135</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.690021672867</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S42" t="n">
-        <v>1473.374852597972</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="T42" t="n">
-        <v>1272.295436058511</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="U42" t="n">
-        <v>1044.089889254668</v>
+        <v>1361.81597859994</v>
       </c>
       <c r="V42" t="n">
-        <v>808.937781022925</v>
+        <v>1126.663870368198</v>
       </c>
       <c r="W42" t="n">
-        <v>554.7004242947235</v>
+        <v>872.4265136399961</v>
       </c>
       <c r="X42" t="n">
-        <v>523.7190225174128</v>
+        <v>664.5750134344632</v>
       </c>
       <c r="Y42" t="n">
-        <v>523.7190225174128</v>
+        <v>664.5750134344632</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="C43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="D43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="E43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="F43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K43" t="n">
-        <v>38.69211261456449</v>
+        <v>38.69211261456446</v>
       </c>
       <c r="L43" t="n">
         <v>99.56240786157085</v>
@@ -7579,40 +7579,40 @@
         <v>174.1307226488851</v>
       </c>
       <c r="N43" t="n">
-        <v>252.3605860007886</v>
+        <v>252.3605860007887</v>
       </c>
       <c r="O43" t="n">
-        <v>308.6022311620749</v>
+        <v>308.602231162075</v>
       </c>
       <c r="P43" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R43" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S43" t="n">
-        <v>209.5600407204871</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T43" t="n">
-        <v>203.3979190103502</v>
+        <v>327.0438707029744</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3013313900097</v>
+        <v>260.9472830826339</v>
       </c>
       <c r="V43" t="n">
-        <v>105.7188351821088</v>
+        <v>229.364786874733</v>
       </c>
       <c r="W43" t="n">
-        <v>39.4036571431341</v>
+        <v>163.0496088357583</v>
       </c>
       <c r="X43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.5160982431027</v>
+        <v>34.51609824310267</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>34.5160982431027</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5160982431027</v>
+        <v>59.37134083403436</v>
       </c>
       <c r="J44" t="n">
-        <v>65.39226604991622</v>
+        <v>90.24750864084788</v>
       </c>
       <c r="K44" t="n">
-        <v>232.4124420191938</v>
+        <v>257.2676846101255</v>
       </c>
       <c r="L44" t="n">
-        <v>491.8923667855305</v>
+        <v>684.4044003685215</v>
       </c>
       <c r="M44" t="n">
-        <v>797.2203249900081</v>
+        <v>989.7323585729991</v>
       </c>
       <c r="N44" t="n">
-        <v>1092.856811222974</v>
+        <v>1285.368844805965</v>
       </c>
       <c r="O44" t="n">
-        <v>1326.830324078354</v>
+        <v>1519.342357661345</v>
       </c>
       <c r="P44" t="n">
         <v>1681.358954807343</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>655.5971314198507</v>
+        <v>357.903537185481</v>
       </c>
       <c r="C45" t="n">
-        <v>481.1441021387237</v>
+        <v>183.450507904354</v>
       </c>
       <c r="D45" t="n">
-        <v>332.2096924774725</v>
+        <v>34.5160982431027</v>
       </c>
       <c r="E45" t="n">
-        <v>172.972237472017</v>
+        <v>34.5160982431027</v>
       </c>
       <c r="F45" t="n">
-        <v>172.972237472017</v>
+        <v>34.5160982431027</v>
       </c>
       <c r="G45" t="n">
         <v>34.5160982431027</v>
@@ -7734,13 +7734,13 @@
         <v>322.9341725280814</v>
       </c>
       <c r="M45" t="n">
-        <v>660.6440302326312</v>
+        <v>711.4836830572517</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.184303527813</v>
+        <v>1126.023956352434</v>
       </c>
       <c r="O45" t="n">
-        <v>1387.991988325782</v>
+        <v>1438.831641150403</v>
       </c>
       <c r="P45" t="n">
         <v>1622.044665311383</v>
@@ -7752,25 +7752,25 @@
         <v>1641.690021672867</v>
       </c>
       <c r="S45" t="n">
-        <v>1473.374852597972</v>
+        <v>1637.303109481299</v>
       </c>
       <c r="T45" t="n">
-        <v>1473.374852597972</v>
+        <v>1436.223692941837</v>
       </c>
       <c r="U45" t="n">
-        <v>1245.169305794129</v>
+        <v>1208.018146137994</v>
       </c>
       <c r="V45" t="n">
-        <v>1233.119189560372</v>
+        <v>972.8660379062513</v>
       </c>
       <c r="W45" t="n">
-        <v>978.8818328321706</v>
+        <v>941.7306731760357</v>
       </c>
       <c r="X45" t="n">
-        <v>978.8818328321706</v>
+        <v>733.8791729705029</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.8124684399188</v>
+        <v>526.118874205549</v>
       </c>
     </row>
     <row r="46">
@@ -7810,37 +7810,37 @@
         <v>38.69211261456449</v>
       </c>
       <c r="L46" t="n">
-        <v>99.56240786157085</v>
+        <v>99.56240786157088</v>
       </c>
       <c r="M46" t="n">
         <v>174.1307226488851</v>
       </c>
       <c r="N46" t="n">
-        <v>252.3605860007886</v>
+        <v>252.3605860007887</v>
       </c>
       <c r="O46" t="n">
-        <v>308.6022311620749</v>
+        <v>308.602231162075</v>
       </c>
       <c r="P46" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q46" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R46" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S46" t="n">
-        <v>333.2059924131111</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T46" t="n">
-        <v>327.0438707029742</v>
+        <v>327.0438707029744</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9472830826338</v>
+        <v>260.9472830826339</v>
       </c>
       <c r="V46" t="n">
-        <v>105.7188351821088</v>
+        <v>229.364786874733</v>
       </c>
       <c r="W46" t="n">
         <v>39.4036571431341</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>177.1666066261109</v>
       </c>
       <c r="L11" t="n">
-        <v>239.4943603156855</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,16 +8769,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L12" t="n">
-        <v>83.37591956104349</v>
+        <v>83.37591956104379</v>
       </c>
       <c r="M12" t="n">
-        <v>410.575605240391</v>
+        <v>410.5756052403913</v>
       </c>
       <c r="N12" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8927,7 +8927,7 @@
         <v>137.9085668823631</v>
       </c>
       <c r="K14" t="n">
-        <v>177.1666066261104</v>
+        <v>177.1666066261109</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,16 +9006,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L15" t="n">
-        <v>83.37591956104349</v>
+        <v>83.37591956104379</v>
       </c>
       <c r="M15" t="n">
-        <v>410.575605240391</v>
+        <v>410.5756052403913</v>
       </c>
       <c r="N15" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9164,7 +9164,7 @@
         <v>137.9085668823631</v>
       </c>
       <c r="K17" t="n">
-        <v>177.1666066261104</v>
+        <v>177.1666066261109</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9243,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92920131251583</v>
+        <v>97.7961637367456</v>
       </c>
       <c r="L18" t="n">
-        <v>83.37591956104349</v>
+        <v>79.50895713681399</v>
       </c>
       <c r="M18" t="n">
-        <v>410.575605240391</v>
+        <v>410.5756052403913</v>
       </c>
       <c r="N18" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>177.1666066261104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>316.2415856699789</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,16 +9480,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K21" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>83.37591956104379</v>
       </c>
       <c r="M21" t="n">
-        <v>123.1111794979754</v>
+        <v>410.5756052403913</v>
       </c>
       <c r="N21" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>177.1666066261113</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>202.63332702798</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9717,16 +9717,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K24" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L24" t="n">
-        <v>83.37591956104393</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>410.5756052403913</v>
+        <v>123.1111794979752</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107005</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10665,10 +10665,10 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K36" t="n">
-        <v>93.92920131251583</v>
+        <v>185.9705762917056</v>
       </c>
       <c r="L36" t="n">
-        <v>171.5503321160037</v>
+        <v>79.50895713681399</v>
       </c>
       <c r="M36" t="n">
         <v>455.5718260802935</v>
@@ -10902,16 +10902,16 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K39" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L39" t="n">
-        <v>171.5503321160037</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>455.5718260802935</v>
+        <v>256.2818128928383</v>
       </c>
       <c r="N39" t="n">
-        <v>442.9558409506027</v>
+        <v>442.9558409506028</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,10 +11139,10 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K42" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L42" t="n">
-        <v>319.4871606321253</v>
+        <v>319.4871606321235</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11376,13 +11376,13 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K45" t="n">
-        <v>93.92920131251583</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>414.351879078666</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>267.1095839686034</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>77.11447796959662</v>
       </c>
       <c r="C11" t="n">
-        <v>222.4449553487148</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983902</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E11" t="n">
-        <v>239.102433649969</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194186</v>
+        <v>264.0481093194188</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977251</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H11" t="n">
-        <v>191.441719707231</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385968</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.5191573231983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.905905241188</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4449553487148</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983902</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E14" t="n">
-        <v>239.102433649969</v>
+        <v>239.1024336499692</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194187</v>
+        <v>264.0481093194188</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977252</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H14" t="n">
-        <v>191.441719707231</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385972</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>33.51915732319836</v>
+        <v>33.10850134310147</v>
       </c>
     </row>
     <row r="15">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86781.64499674749</v>
+        <v>86781.64499674762</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125975.7919503425</v>
+        <v>125975.7919503424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674746</v>
+        <v>86781.64499674762</v>
       </c>
       <c r="M3" t="n">
         <v>76347.91860002078</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532963</v>
+        <v>32085.47662532943</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210776</v>
       </c>
       <c r="F4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210776</v>
       </c>
       <c r="G4" t="n">
-        <v>396179.5052090347</v>
+        <v>396179.5052090348</v>
       </c>
       <c r="H4" t="n">
         <v>396179.5052090347</v>
       </c>
       <c r="I4" t="n">
-        <v>396179.5052090348</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="J4" t="n">
         <v>394231.1226104039</v>
@@ -26451,10 +26451,10 @@
         <v>394377.3697647621</v>
       </c>
       <c r="N4" t="n">
-        <v>394377.3697647622</v>
+        <v>394377.3697647621</v>
       </c>
       <c r="O4" t="n">
-        <v>393892.819757347</v>
+        <v>393892.8197573469</v>
       </c>
       <c r="P4" t="n">
         <v>393892.8197573469</v>
@@ -26482,13 +26482,13 @@
         <v>35274.09422500686</v>
       </c>
       <c r="G5" t="n">
+        <v>44393.65186654634</v>
+      </c>
+      <c r="H5" t="n">
+        <v>44393.65186654634</v>
+      </c>
+      <c r="I5" t="n">
         <v>44393.65186654632</v>
-      </c>
-      <c r="H5" t="n">
-        <v>44393.65186654632</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44393.65186654634</v>
       </c>
       <c r="J5" t="n">
         <v>57462.97101278279</v>
@@ -26503,10 +26503,10 @@
         <v>45906.06868409438</v>
       </c>
       <c r="N5" t="n">
-        <v>45906.06868409439</v>
+        <v>45906.06868409438</v>
       </c>
       <c r="O5" t="n">
-        <v>47556.7653456554</v>
+        <v>47556.76534565537</v>
       </c>
       <c r="P5" t="n">
         <v>47556.7653456554</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="C6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="D6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="E6" t="n">
-        <v>-680839.2250338445</v>
+        <v>-681134.2289139258</v>
       </c>
       <c r="F6" t="n">
-        <v>-364280.5615460846</v>
+        <v>-364575.565426166</v>
       </c>
       <c r="G6" t="n">
-        <v>-527354.8020723285</v>
+        <v>-527354.8020723287</v>
       </c>
       <c r="H6" t="n">
         <v>-440573.157075581</v>
       </c>
       <c r="I6" t="n">
-        <v>-440573.1570755811</v>
+        <v>-440573.157075581</v>
       </c>
       <c r="J6" t="n">
         <v>-577669.8855735292</v>
@@ -26549,19 +26549,19 @@
         <v>-451694.0936231867</v>
       </c>
       <c r="L6" t="n">
-        <v>-538475.7386199342</v>
+        <v>-538475.7386199343</v>
       </c>
       <c r="M6" t="n">
         <v>-516631.3570488773</v>
       </c>
       <c r="N6" t="n">
-        <v>-440283.4384488566</v>
+        <v>-440283.4384488565</v>
       </c>
       <c r="O6" t="n">
-        <v>-473535.061728332</v>
+        <v>-473535.0617283317</v>
       </c>
       <c r="P6" t="n">
-        <v>-441449.5851030023</v>
+        <v>-441449.5851030024</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I2" t="n">
         <v>251.3049926682271</v>
@@ -26719,7 +26719,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="N2" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="O2" t="n">
         <v>220.8709720780061</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="F3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="G3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="J3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="K3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="L3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="M3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="N3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="O3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="P3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>337.3447945501593</v>
+      </c>
+      <c r="F4" t="n">
+        <v>337.3447945501593</v>
+      </c>
+      <c r="G4" t="n">
+        <v>337.3447945501593</v>
+      </c>
+      <c r="H4" t="n">
+        <v>337.3447945501593</v>
+      </c>
+      <c r="I4" t="n">
         <v>337.3447945501591</v>
       </c>
-      <c r="F4" t="n">
-        <v>337.3447945501591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>337.3447945501591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>337.3447945501591</v>
-      </c>
-      <c r="I4" t="n">
-        <v>337.3447945501593</v>
-      </c>
       <c r="J4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="K4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="L4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="M4" t="n">
         <v>382.3410153900616</v>
       </c>
       <c r="N4" t="n">
-        <v>382.3410153900616</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O4" t="n">
-        <v>431.4512280387838</v>
+        <v>431.4512280387833</v>
       </c>
       <c r="P4" t="n">
         <v>431.4512280387838</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209916</v>
+        <v>41.21606132209902</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056927</v>
+        <v>87.06009728056921</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.33381855150247</v>
+        <v>25.33381855150239</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>126.4279325353879</v>
+        <v>126.427932535388</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597802</v>
+        <v>355.4560505597806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028109</v>
+        <v>26.88496483028126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.11021264872221</v>
+        <v>49.11021264872164</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459345</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209916</v>
+        <v>41.21606132209902</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="12">
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G12" t="n">
         <v>137.0715778366251</v>
@@ -28214,16 +28214,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>51.28693136788883</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>110.8411262127361</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="13">
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J13" t="n">
         <v>77.2406550129398</v>
@@ -28275,46 +28275,46 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="N13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="O13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="P13" t="n">
-        <v>73.73708999534765</v>
+        <v>73.73708999535027</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="C14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="E14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="F14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="G14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="I14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="T14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="U14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="V14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="W14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="C15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="D15" t="n">
-        <v>51.28693136788918</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="E15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="F15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="G15" t="n">
         <v>137.0715778366251</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>51.28693136788911</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="D16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="I16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="J16" t="n">
         <v>77.2406550129398</v>
@@ -28512,46 +28512,46 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="M16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="N16" t="n">
-        <v>73.73708999534816</v>
+        <v>6.665664556499905</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="P16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.8279364222928</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="V16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="W16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.8279364222928</v>
+        <v>142.8279364222926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I17" t="n">
         <v>190.8814659761525</v>
@@ -28618,19 +28618,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="18">
@@ -28643,19 +28643,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
         <v>109.6090828455255</v>
@@ -28694,19 +28694,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X18" t="n">
-        <v>66.59375149830902</v>
+        <v>131.4613947829914</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>67.07142543885081</v>
       </c>
       <c r="R19" t="n">
-        <v>162.435072958954</v>
+        <v>167.0423658965133</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T19" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>1.058917638609302</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I20" t="n">
         <v>190.8814659761525</v>
@@ -28858,16 +28858,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28892,7 +28892,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>33.05238335074458</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6090828455255</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>77.17085760383367</v>
       </c>
       <c r="T21" t="n">
         <v>199.0686223740667</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S22" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T22" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U22" t="n">
-        <v>26.65425491779956</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682271</v>
+        <v>26.65425491779934</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29123,10 +29123,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>47.33519568894191</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0715778366251</v>
@@ -29135,7 +29135,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9234913358047</v>
+        <v>84.40900223132761</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.25266787036051</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R25" t="n">
         <v>167.0423658965133</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T25" t="n">
         <v>226.9714725710416</v>
@@ -29259,7 +29259,7 @@
         <v>251.3049926682271</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>1.058917638609387</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29360,19 +29360,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>64.53229167248065</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.743927032810262</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>149.6931175680335</v>
@@ -29451,13 +29451,13 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
-        <v>149.6931175680335</v>
+        <v>77.2406550129398</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>21.3799299470357</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,13 +29469,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>11.64097066483108</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.6931175680335</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R28" t="n">
         <v>149.6931175680335</v>
@@ -29603,10 +29603,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H30" t="n">
-        <v>13.20967656608715</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I30" t="n">
         <v>80.03380954572833</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>149.6931175680335</v>
+        <v>149.188992597449</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29688,28 +29688,28 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I31" t="n">
-        <v>148.5943503235359</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J31" t="n">
-        <v>77.2406550129398</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>11.64097066483104</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>85.19220046442234</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>149.6931175680335</v>
@@ -29779,10 +29779,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="M32" t="n">
-        <v>149.6931175680343</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="N32" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680338</v>
       </c>
       <c r="O32" t="n">
         <v>149.6931175680335</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>149.1889925974491</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="E33" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6090828455255</v>
+        <v>106.7291047036862</v>
       </c>
       <c r="I33" t="n">
         <v>80.03380954572833</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29910,10 +29910,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D34" t="n">
-        <v>149.6931175680335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>149.6931175680335</v>
@@ -29931,13 +29931,13 @@
         <v>77.2406550129398</v>
       </c>
       <c r="K34" t="n">
-        <v>84.09343321992523</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>88.43023269121014</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30065,13 +30065,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30080,10 +30080,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.03380954572833</v>
+        <v>51.74306680510769</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>211.7309951032508</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30192,13 +30192,13 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T37" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U37" t="n">
-        <v>55.75781055704837</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V37" t="n">
         <v>236.7532148486027</v>
@@ -30207,7 +30207,7 @@
         <v>236.7532148486027</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>44.71425109748273</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="C38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="D38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="E38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="F38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="G38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="H38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="I38" t="n">
         <v>190.8814659761525</v>
@@ -30277,19 +30277,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>28.73219179799919</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>135.1732872867576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30423,25 +30423,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.11838704380962</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>167.0423658965133</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T40" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U40" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="V40" t="n">
-        <v>236.7532148486028</v>
+        <v>55.75781055704823</v>
       </c>
       <c r="W40" t="n">
-        <v>236.7532148486028</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30493,16 +30493,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>132.8285146721514</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>61.62808490662536</v>
       </c>
       <c r="Q41" t="n">
-        <v>194.4565995787788</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>117.9425707366228</v>
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6090828455255</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>32.20646450030935</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>175.1013974439399</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -30666,7 +30666,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S43" t="n">
-        <v>97.63395263717059</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T43" t="n">
         <v>220.8709720780061</v>
@@ -30681,7 +30681,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="X43" t="n">
-        <v>220.8709720780061</v>
+        <v>98.46147990230808</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30715,7 +30715,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I44" t="n">
-        <v>190.8814659761525</v>
+        <v>215.9877716235582</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>169.3502939313729</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>194.4565995787788</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30782,13 +30782,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
         <v>109.6090828455255</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>162.2889743144932</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>220.8709720780061</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.16402502897506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30903,7 +30903,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0434448128684</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T46" t="n">
         <v>220.8709720780061</v>
@@ -30912,10 +30912,10 @@
         <v>220.8709720780061</v>
       </c>
       <c r="V46" t="n">
-        <v>98.46147990230827</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W46" t="n">
-        <v>220.8709720780061</v>
+        <v>98.4614799023081</v>
       </c>
       <c r="X46" t="n">
         <v>220.8709720780061</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H11" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I11" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J11" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K11" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L11" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M11" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N11" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O11" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P11" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R11" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S11" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T11" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H12" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I12" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J12" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K12" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L12" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M12" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N12" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O12" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P12" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R12" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S12" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T12" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H13" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I13" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J13" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K13" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L13" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M13" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N13" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O13" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P13" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S13" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H14" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I14" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J14" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K14" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L14" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M14" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N14" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O14" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P14" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R14" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S14" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T14" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H15" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I15" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J15" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K15" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L15" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M15" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N15" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O15" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P15" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R15" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S15" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T15" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H16" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I16" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J16" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K16" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L16" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M16" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N16" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O16" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P16" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S16" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H17" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I17" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J17" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K17" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L17" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M17" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N17" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O17" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P17" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R17" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S17" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T17" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H18" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I18" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J18" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K18" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L18" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M18" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N18" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O18" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P18" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R18" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S18" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T18" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H19" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I19" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J19" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K19" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L19" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M19" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N19" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O19" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P19" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S19" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H20" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I20" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J20" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K20" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L20" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M20" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N20" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O20" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P20" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R20" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S20" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T20" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H21" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I21" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J21" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K21" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L21" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M21" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N21" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O21" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P21" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R21" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S21" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T21" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H22" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I22" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J22" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K22" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L22" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M22" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N22" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O22" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P22" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R22" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S22" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H23" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I23" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J23" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K23" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L23" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M23" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N23" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O23" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P23" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R23" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S23" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T23" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H24" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I24" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J24" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K24" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L24" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M24" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N24" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O24" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P24" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R24" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S24" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T24" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H25" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I25" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J25" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K25" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L25" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M25" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N25" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O25" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P25" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S25" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H26" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I26" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J26" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K26" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L26" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M26" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N26" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O26" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P26" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R26" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S26" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T26" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H27" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I27" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J27" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K27" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L27" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M27" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N27" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O27" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P27" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R27" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S27" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T27" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H28" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I28" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J28" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K28" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L28" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M28" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N28" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O28" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P28" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S28" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H29" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I29" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J29" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K29" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L29" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M29" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N29" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O29" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P29" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R29" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S29" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T29" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H30" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I30" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J30" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K30" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L30" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M30" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N30" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O30" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P30" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R30" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S30" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T30" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H31" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I31" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J31" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K31" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L31" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M31" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N31" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O31" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P31" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R31" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S31" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H32" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I32" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J32" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K32" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L32" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M32" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N32" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O32" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P32" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R32" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S32" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T32" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H33" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I33" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J33" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K33" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L33" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M33" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N33" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O33" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P33" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R33" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S33" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T33" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H34" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I34" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J34" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K34" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L34" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M34" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N34" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O34" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P34" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R34" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S34" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H35" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I35" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J35" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K35" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L35" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M35" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N35" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O35" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P35" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R35" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S35" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T35" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H36" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I36" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J36" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K36" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L36" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M36" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N36" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O36" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P36" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R36" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S36" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T36" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H37" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I37" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J37" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K37" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L37" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M37" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N37" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O37" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P37" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R37" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S37" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H38" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I38" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J38" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K38" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L38" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M38" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N38" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O38" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P38" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R38" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S38" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T38" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H39" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I39" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J39" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K39" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L39" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M39" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N39" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O39" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P39" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R39" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S39" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T39" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H40" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I40" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J40" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K40" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L40" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M40" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N40" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O40" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P40" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R40" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S40" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H41" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I41" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J41" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K41" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L41" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M41" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N41" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O41" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P41" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R41" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S41" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T41" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H42" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I42" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J42" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K42" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L42" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M42" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N42" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O42" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P42" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R42" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S42" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T42" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H43" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I43" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J43" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K43" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L43" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M43" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N43" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O43" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P43" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R43" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S43" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5082529951171368</v>
+        <v>0.5082529951171371</v>
       </c>
       <c r="H44" t="n">
-        <v>5.205145986243378</v>
+        <v>5.205145986243382</v>
       </c>
       <c r="I44" t="n">
-        <v>19.59442359425343</v>
+        <v>19.59442359425345</v>
       </c>
       <c r="J44" t="n">
-        <v>43.13733764432313</v>
+        <v>43.13733764432315</v>
       </c>
       <c r="K44" t="n">
-        <v>64.65168692763154</v>
+        <v>64.65168692763159</v>
       </c>
       <c r="L44" t="n">
-        <v>80.20613452694764</v>
+        <v>80.20613452694768</v>
       </c>
       <c r="M44" t="n">
-        <v>89.24477872886202</v>
+        <v>89.24477872886207</v>
       </c>
       <c r="N44" t="n">
-        <v>90.6888525512386</v>
+        <v>90.68885255123864</v>
       </c>
       <c r="O44" t="n">
-        <v>85.63491183104256</v>
+        <v>85.6349118310426</v>
       </c>
       <c r="P44" t="n">
-        <v>73.08741601408823</v>
+        <v>73.08741601408826</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.88560562645575</v>
+        <v>54.88560562645578</v>
       </c>
       <c r="R44" t="n">
-        <v>31.92654720452687</v>
+        <v>31.92654720452689</v>
       </c>
       <c r="S44" t="n">
         <v>11.58181512623177</v>
       </c>
       <c r="T44" t="n">
-        <v>2.224877486125268</v>
+        <v>2.224877486125269</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04066023960937094</v>
+        <v>0.04066023960937096</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2719393265855513</v>
+        <v>0.2719393265855515</v>
       </c>
       <c r="H45" t="n">
-        <v>2.626361390970983</v>
+        <v>2.626361390970984</v>
       </c>
       <c r="I45" t="n">
-        <v>9.362823305686746</v>
+        <v>9.362823305686751</v>
       </c>
       <c r="J45" t="n">
-        <v>25.69230278061124</v>
+        <v>25.69230278061125</v>
       </c>
       <c r="K45" t="n">
-        <v>43.91223766184317</v>
+        <v>43.91223766184319</v>
       </c>
       <c r="L45" t="n">
-        <v>59.04542264306017</v>
+        <v>59.0454226430602</v>
       </c>
       <c r="M45" t="n">
-        <v>68.90322323178638</v>
+        <v>68.90322323178643</v>
       </c>
       <c r="N45" t="n">
-        <v>70.72688652279214</v>
+        <v>70.72688652279217</v>
       </c>
       <c r="O45" t="n">
-        <v>64.70128354950175</v>
+        <v>64.7012835495018</v>
       </c>
       <c r="P45" t="n">
-        <v>51.92848421439357</v>
+        <v>51.9284842143936</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.71281649537669</v>
+        <v>34.71281649537671</v>
       </c>
       <c r="R45" t="n">
-        <v>16.88409257519766</v>
+        <v>16.88409257519767</v>
       </c>
       <c r="S45" t="n">
-        <v>5.051153719692144</v>
+        <v>5.051153719692148</v>
       </c>
       <c r="T45" t="n">
-        <v>1.096106320754919</v>
+        <v>1.09610632075492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01789074517010207</v>
+        <v>0.01789074517010208</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2279847963752896</v>
+        <v>0.2279847963752897</v>
       </c>
       <c r="H46" t="n">
-        <v>2.026992098682122</v>
+        <v>2.026992098682123</v>
       </c>
       <c r="I46" t="n">
-        <v>6.856124603722347</v>
+        <v>6.856124603722352</v>
       </c>
       <c r="J46" t="n">
-        <v>16.11852510373297</v>
+        <v>16.11852510373298</v>
       </c>
       <c r="K46" t="n">
-        <v>26.48768816069273</v>
+        <v>26.48768816069274</v>
       </c>
       <c r="L46" t="n">
-        <v>33.8951214538317</v>
+        <v>33.89512145383171</v>
       </c>
       <c r="M46" t="n">
-        <v>35.73765312635562</v>
+        <v>35.73765312635564</v>
       </c>
       <c r="N46" t="n">
-        <v>34.8878916125932</v>
+        <v>34.88789161259322</v>
       </c>
       <c r="O46" t="n">
-        <v>32.22461467311822</v>
+        <v>32.22461467311824</v>
       </c>
       <c r="P46" t="n">
-        <v>27.57372482706229</v>
+        <v>27.5737248270623</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.09061781284357</v>
+        <v>19.09061781284358</v>
       </c>
       <c r="R46" t="n">
-        <v>10.2510254806562</v>
+        <v>10.25102548065621</v>
       </c>
       <c r="S46" t="n">
-        <v>3.973153224103909</v>
+        <v>3.973153224103911</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9741168572398735</v>
+        <v>0.9741168572398741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01243553434774308</v>
+        <v>0.01243553434774309</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>31.18804828971061</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>168.7072484538157</v>
+        <v>21.72844250876197</v>
       </c>
       <c r="L11" t="n">
-        <v>83.93407987264587</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M11" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N11" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O11" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P11" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3.866962424229469</v>
+        <v>3.866962424229796</v>
       </c>
       <c r="M12" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O12" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P12" t="n">
         <v>236.4168454400005</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3130831364406</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M13" t="n">
-        <v>75.3215300881962</v>
+        <v>218.1494665104889</v>
       </c>
       <c r="N13" t="n">
-        <v>221.8480004141146</v>
+        <v>221.8480004141145</v>
       </c>
       <c r="O13" t="n">
-        <v>199.6376790094507</v>
+        <v>199.6376790094506</v>
       </c>
       <c r="P13" t="n">
-        <v>98.58937408730343</v>
+        <v>98.58937408730607</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.75651098344198</v>
+        <v>75.75651098344184</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>21.72844250876141</v>
+        <v>21.72844250876197</v>
       </c>
       <c r="L14" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M14" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N14" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O14" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P14" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.866962424229469</v>
+        <v>3.866962424229796</v>
       </c>
       <c r="M15" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N15" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O15" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P15" t="n">
         <v>236.4168454400005</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L16" t="n">
-        <v>204.3130831364406</v>
+        <v>204.3130831364405</v>
       </c>
       <c r="M16" t="n">
-        <v>218.149466510489</v>
+        <v>218.1494665104888</v>
       </c>
       <c r="N16" t="n">
-        <v>152.7571539871699</v>
+        <v>85.68572854832172</v>
       </c>
       <c r="O16" t="n">
-        <v>56.80974258715789</v>
+        <v>199.6376790094506</v>
       </c>
       <c r="P16" t="n">
-        <v>167.6802205142485</v>
+        <v>167.6802205142484</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.75651098344196</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.72844250876141</v>
+        <v>21.72844250876197</v>
       </c>
       <c r="L17" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M17" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O17" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P17" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3.866962424229796</v>
       </c>
       <c r="L18" t="n">
-        <v>3.866962424229469</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N18" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O18" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P18" t="n">
         <v>236.4168454400005</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L19" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M19" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N19" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O19" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P19" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K20" t="n">
-        <v>21.72844250876141</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L20" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M20" t="n">
-        <v>308.4120789944218</v>
+        <v>175.1401311715683</v>
       </c>
       <c r="N20" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O20" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P20" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.89490641191095</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3313881666452</v>
+        <v>3.866962424229796</v>
       </c>
       <c r="M21" t="n">
-        <v>49.88036880774343</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N21" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O21" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P21" t="n">
         <v>236.4168454400005</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L22" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M22" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N22" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O22" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P22" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K23" t="n">
-        <v>21.72844250876231</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L23" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M23" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N23" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O23" t="n">
-        <v>236.3368816721012</v>
+        <v>58.17002743733588</v>
       </c>
       <c r="P23" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.866962424229911</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M24" t="n">
-        <v>337.3447945501593</v>
+        <v>49.88036880774331</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501593</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O24" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P24" t="n">
         <v>236.4168454400005</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L25" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M25" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N25" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O25" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P25" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>180.8811658577441</v>
       </c>
       <c r="K26" t="n">
-        <v>318.4003660218492</v>
+        <v>318.4003660218493</v>
       </c>
       <c r="L26" t="n">
         <v>411.7940516754443</v>
@@ -36604,19 +36604,19 @@
         <v>458.1051965624553</v>
       </c>
       <c r="N26" t="n">
-        <v>448.3158309346653</v>
+        <v>448.3158309346654</v>
       </c>
       <c r="O26" t="n">
-        <v>386.0299992401347</v>
+        <v>386.0299992401348</v>
       </c>
       <c r="P26" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983349</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.5880239799444</v>
+        <v>194.5880239799445</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141069</v>
+        <v>31.75054683141071</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.94571145435338</v>
+        <v>24.94571145435339</v>
       </c>
       <c r="K27" t="n">
         <v>170.5360357000628</v>
@@ -36686,7 +36686,7 @@
         <v>418.7275487830124</v>
       </c>
       <c r="O27" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P27" t="n">
         <v>236.4168454400005</v>
@@ -36735,7 +36735,7 @@
         <v>1.077644549821144</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464329</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>4.272069545102255</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.098767244497563</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.4524625550937</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.218196334809878</v>
+        <v>25.59812628184559</v>
       </c>
       <c r="L28" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M28" t="n">
         <v>225.0146476562297</v>
       </c>
       <c r="N28" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O28" t="n">
-        <v>68.45071325198897</v>
+        <v>206.5028601551914</v>
       </c>
       <c r="P28" t="n">
         <v>174.5454016599893</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.62169212918269</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>180.8811658577441</v>
       </c>
       <c r="K29" t="n">
-        <v>318.4003660218492</v>
+        <v>318.4003660218493</v>
       </c>
       <c r="L29" t="n">
         <v>411.7940516754443</v>
@@ -36841,19 +36841,19 @@
         <v>458.1051965624553</v>
       </c>
       <c r="N29" t="n">
-        <v>448.3158309346653</v>
+        <v>448.3158309346654</v>
       </c>
       <c r="O29" t="n">
         <v>386.0299992401347</v>
       </c>
       <c r="P29" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983349</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.5880239799444</v>
+        <v>194.5880239799445</v>
       </c>
       <c r="R29" t="n">
-        <v>31.75054683141069</v>
+        <v>31.7505468314107</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.94571145435338</v>
+        <v>24.94571145435339</v>
       </c>
       <c r="K30" t="n">
         <v>170.5360357000628</v>
@@ -36923,7 +36923,7 @@
         <v>418.7275487830124</v>
       </c>
       <c r="O30" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P30" t="n">
         <v>236.4168454400005</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.098767244497568</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.4524625550937</v>
       </c>
       <c r="K31" t="n">
-        <v>4.218196334809878</v>
+        <v>15.85916699964093</v>
       </c>
       <c r="L31" t="n">
-        <v>61.48514671414784</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M31" t="n">
-        <v>225.0146476562297</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N31" t="n">
-        <v>79.02006399182179</v>
+        <v>228.7131815598553</v>
       </c>
       <c r="O31" t="n">
-        <v>142.0019430515802</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5454016599893</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q31" t="n">
         <v>82.62169212918269</v>
@@ -37069,28 +37069,28 @@
         <v>180.8811658577441</v>
       </c>
       <c r="K32" t="n">
-        <v>318.4003660218492</v>
+        <v>318.4003660218493</v>
       </c>
       <c r="L32" t="n">
         <v>411.7940516754443</v>
       </c>
       <c r="M32" t="n">
-        <v>458.1051965624561</v>
+        <v>458.1051965624553</v>
       </c>
       <c r="N32" t="n">
-        <v>448.3158309346653</v>
+        <v>448.3158309346657</v>
       </c>
       <c r="O32" t="n">
         <v>386.0299992401347</v>
       </c>
       <c r="P32" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983349</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.5880239799444</v>
+        <v>194.5880239799445</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141066</v>
+        <v>31.75054683141071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.94571145435338</v>
+        <v>24.94571145435339</v>
       </c>
       <c r="K33" t="n">
         <v>170.5360357000628</v>
@@ -37160,7 +37160,7 @@
         <v>418.7275487830124</v>
       </c>
       <c r="O33" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P33" t="n">
         <v>236.4168454400005</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.077644549821116</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.259154921464301</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.272069545102227</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.098767244497535</v>
+        <v>1.098767244497568</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>88.31162955473511</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L34" t="n">
         <v>211.1782642821813</v>
       </c>
       <c r="M34" t="n">
-        <v>75.3215300881962</v>
+        <v>163.7517627794064</v>
       </c>
       <c r="N34" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O34" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62169212918266</v>
+        <v>82.62169212918269</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>31.18804828971061</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K35" t="n">
-        <v>168.7072484538157</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L35" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M35" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N35" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O35" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P35" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>92.04137497918981</v>
       </c>
       <c r="L36" t="n">
-        <v>92.04137497918968</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>382.3410153900616</v>
@@ -37397,7 +37397,7 @@
         <v>382.3410153900616</v>
       </c>
       <c r="O36" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P36" t="n">
         <v>236.4168454400005</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L37" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M37" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N37" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O37" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P37" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31.18804828971061</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K38" t="n">
-        <v>168.7072484538157</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L38" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M38" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N38" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O38" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P38" t="n">
-        <v>163.6531284303013</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>92.04137497918968</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M39" t="n">
-        <v>382.3410153900616</v>
+        <v>183.0510022026064</v>
       </c>
       <c r="N39" t="n">
-        <v>382.3410153900616</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O39" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P39" t="n">
         <v>236.4168454400005</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L40" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M40" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N40" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O40" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P40" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.18804828971061</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K41" t="n">
-        <v>168.7072484538157</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L41" t="n">
-        <v>262.1009341074108</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M41" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N41" t="n">
-        <v>298.6227133666318</v>
+        <v>431.4512280387833</v>
       </c>
       <c r="O41" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P41" t="n">
-        <v>163.6531284303013</v>
+        <v>225.2812133369267</v>
       </c>
       <c r="Q41" t="n">
-        <v>239.3515059906898</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>239.9782034953113</v>
+        <v>239.9782034953095</v>
       </c>
       <c r="M42" t="n">
         <v>392.474253059768</v>
@@ -37871,7 +37871,7 @@
         <v>418.7275487830124</v>
       </c>
       <c r="O42" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P42" t="n">
         <v>236.4168454400005</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L43" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M43" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N43" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O43" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P43" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.10630564740571</v>
       </c>
       <c r="J44" t="n">
-        <v>31.18804828971061</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K44" t="n">
-        <v>168.7072484538157</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L44" t="n">
-        <v>262.1009341074108</v>
+        <v>431.4512280387838</v>
       </c>
       <c r="M44" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N44" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O44" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P44" t="n">
-        <v>358.1097280090802</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.89490641191095</v>
+        <v>44.89490641191097</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M45" t="n">
-        <v>341.1210683884341</v>
+        <v>392.474253059768</v>
       </c>
       <c r="N45" t="n">
         <v>418.7275487830124</v>
       </c>
       <c r="O45" t="n">
-        <v>315.9673583817868</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P45" t="n">
-        <v>236.4168454400005</v>
+        <v>185.0636607686667</v>
       </c>
       <c r="Q45" t="n">
         <v>104.8083301452043</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.218196334809878</v>
+        <v>4.218196334809893</v>
       </c>
       <c r="L46" t="n">
-        <v>61.48514671414784</v>
+        <v>61.48514671414785</v>
       </c>
       <c r="M46" t="n">
-        <v>75.3215300881962</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N46" t="n">
-        <v>79.02006399182179</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O46" t="n">
-        <v>56.80974258715789</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P46" t="n">
-        <v>24.85228409195577</v>
+        <v>24.85228409195579</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
